--- a/Cluster HD/outputs/checkpoint.xlsx
+++ b/Cluster HD/outputs/checkpoint.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tekul002\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csusm-my.sharepoint.com/personal/tekul002_csusm_edu/Documents/Desktop/HDCluster/Cluster HD/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1964E766-3F09-4ECB-80BA-C5B48C1F08FA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{945530CE-3DAD-4329-9D63-68BD20C947F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Base line with K-means</t>
   </si>
@@ -111,13 +111,34 @@
   </si>
   <si>
     <t>cfar10_128_resnet_CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emnist_resnet_cc_128  </t>
+  </si>
+  <si>
+    <t>Contrastive learning with knn (Supervised)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cifar 10 </t>
+  </si>
+  <si>
+    <t>mnist</t>
+  </si>
+  <si>
+    <t>top1 acc</t>
+  </si>
+  <si>
+    <t>top 5 acc</t>
+  </si>
+  <si>
+    <t>emnist letters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +158,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,10 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,15 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF49FF-6497-441F-A8A8-09763A9AC58D}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -745,7 +775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -753,12 +783,64 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
       <c r="B50">
         <v>0.538933</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>0.23264699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="C55">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>95.2</v>
+      </c>
+      <c r="C56">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57">
+        <v>80.2</v>
+      </c>
+      <c r="C57">
+        <v>99.1</v>
       </c>
     </row>
   </sheetData>

--- a/Cluster HD/outputs/checkpoint.xlsx
+++ b/Cluster HD/outputs/checkpoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csusm-my.sharepoint.com/personal/tekul002_csusm_edu/Documents/Desktop/HDCluster/Cluster HD/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1964E766-3F09-4ECB-80BA-C5B48C1F08FA}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27CF76AC-F521-4662-B842-DA5DC3559CBE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{945530CE-3DAD-4329-9D63-68BD20C947F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Base line with K-means</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Contrastive training and Kmeans</t>
   </si>
   <si>
-    <t>cfar10_128_resnet_CC</t>
-  </si>
-  <si>
     <t xml:space="preserve">emnist_resnet_cc_128  </t>
   </si>
   <si>
@@ -132,6 +129,21 @@
   </si>
   <si>
     <t>emnist letters</t>
+  </si>
+  <si>
+    <t>cifar10_resnet_cc_2048</t>
+  </si>
+  <si>
+    <t>cifar10_128_resnet_CC</t>
+  </si>
+  <si>
+    <t>cifar_resnet_cc_128_non_normalized</t>
+  </si>
+  <si>
+    <t>mnist_resnet_cc_128_non_normalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mnist_resnet_cc_2048</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF49FF-6497-441F-A8A8-09763A9AC58D}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +776,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <v>0.53909363596975801</v>
@@ -785,61 +797,93 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B50">
-        <v>0.538933</v>
+        <v>0.3609</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B51">
-        <v>0.23264699999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
+        <v>0.23709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>0.4521</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>0.538933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54">
+        <v>0.47</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>0.23264699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="3">
+        <v>88.2</v>
+      </c>
+      <c r="C63">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>27</v>
       </c>
-      <c r="B55" s="3">
-        <v>88.2</v>
-      </c>
-      <c r="C55">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56">
+      <c r="B64">
         <v>95.2</v>
       </c>
-      <c r="C56">
+      <c r="C64">
         <v>98.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65">
         <v>80.2</v>
       </c>
-      <c r="C57">
+      <c r="C65">
         <v>99.1</v>
       </c>
     </row>

--- a/Cluster HD/outputs/checkpoint.xlsx
+++ b/Cluster HD/outputs/checkpoint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csusm-my.sharepoint.com/personal/tekul002_csusm_edu/Documents/Desktop/HDCluster/Cluster HD/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27CF76AC-F521-4662-B842-DA5DC3559CBE}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{97D46F58-8CD5-47C8-A584-16F385B3EA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97E885BA-C3BA-46A0-83DD-1F37531CDAEC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{945530CE-3DAD-4329-9D63-68BD20C947F7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Base line with K-means</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t xml:space="preserve"> mnist_resnet_cc_2048</t>
+  </si>
+  <si>
+    <t>mnist_resnet_cc_512</t>
+  </si>
+  <si>
+    <t>cifar10_512_resnet_CC</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Contrastive training LVID Kmeans</t>
+  </si>
+  <si>
+    <t>Contrastive training LVID HD</t>
   </si>
 </sst>
 </file>
@@ -202,11 +217,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF49FF-6497-441F-A8A8-09763A9AC58D}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,70 +794,110 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44">
+        <v>0.72674000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.53909363596975801</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>0.43890000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49">
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50">
-        <v>0.3609</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>0.23709</v>
+        <v>0.63749999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B52">
-        <v>0.4521</v>
+        <v>0.3609</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>0.538933</v>
+        <v>0.23709</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B54">
-        <v>0.47</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55">
+        <v>0.538933</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56">
+        <v>0.4521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>24</v>
       </c>
-      <c r="B55">
+      <c r="B59">
         <v>0.23264699999999999</v>
       </c>
     </row>
@@ -885,6 +943,48 @@
       </c>
       <c r="C65">
         <v>99.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>0.5323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>0.77690000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
